--- a/show_info/Bachelor_S22_2018.xlsx
+++ b/show_info/Bachelor_S22_2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindseytam/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5719EF59-A5B8-4146-96B7-583DD443AB71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3377E44E-3882-894A-9D92-00F997321C7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{537E1916-1053-C644-9016-99E6A2C993C4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8276E72E-E5B4-EE48-B547-B173BE258E4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,192 +33,363 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
-  <si>
-    <t>hometown</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="119">
+  <si>
+    <t>name</t>
   </si>
   <si>
     <t>age</t>
   </si>
   <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
     <t>place</t>
   </si>
   <si>
-    <t>name</t>
+    <t>date_elim</t>
+  </si>
+  <si>
+    <t>twitter_handle</t>
   </si>
   <si>
     <t>Rebecca "Becca" Kufrin</t>
   </si>
   <si>
-    <t>Prior Lake, Minnesota</t>
+    <t>Prior Lake</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>thebkoof</t>
   </si>
   <si>
     <t>Lauren Burnham</t>
   </si>
   <si>
+    <t>Virginia Beach</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Virginia</t>
+  </si>
+  <si>
+    <t>laurenburnham91</t>
+  </si>
+  <si>
     <t>Kendall Long</t>
   </si>
   <si>
+    <t>Santa Clarita</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>KendallPatrice</t>
+  </si>
+  <si>
     <t>Tia Booth</t>
   </si>
   <si>
+    <t>Weiner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arkansas	</t>
+  </si>
+  <si>
+    <t>tiarachel91</t>
+  </si>
+  <si>
     <t>Rebekah "Bekah" Martinez</t>
   </si>
   <si>
+    <t>Fresno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">California	</t>
+  </si>
+  <si>
+    <t>whats_ur_sign_</t>
+  </si>
+  <si>
     <t>Seinne Fleming</t>
   </si>
   <si>
+    <t>Long Beach</t>
+  </si>
+  <si>
+    <t>seinnefleming</t>
+  </si>
+  <si>
     <t>Jacqueline Trumbull</t>
   </si>
   <si>
+    <t>Morgantown,</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>trumbullina</t>
+  </si>
+  <si>
     <t>Chelsea Roy</t>
   </si>
   <si>
+    <t>South Portland</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>Chelsea_roy_</t>
+  </si>
+  <si>
     <t>Jenna Cooper</t>
   </si>
   <si>
+    <t>Raleigh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Carolina	</t>
+  </si>
+  <si>
+    <t>jennaacooperr</t>
+  </si>
+  <si>
     <t>Krystal Nielson</t>
   </si>
   <si>
+    <t>Missoula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montana	</t>
+  </si>
+  <si>
+    <t>CoachKrystal__</t>
+  </si>
+  <si>
     <t>Ashley Luebke</t>
   </si>
   <si>
+    <t>West Palm Beach</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>ashleyluebke</t>
+  </si>
+  <si>
     <t>Maquel Cooper</t>
   </si>
   <si>
+    <t>American Fork</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utah	</t>
+  </si>
+  <si>
+    <t>maquelx</t>
+  </si>
+  <si>
     <t>Marikh Mathias</t>
   </si>
   <si>
+    <t>Salt Lake City</t>
+  </si>
+  <si>
+    <t>maroosworld</t>
+  </si>
+  <si>
     <t>Brittany Taylor</t>
   </si>
   <si>
+    <t>Belton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Carolina	</t>
+  </si>
+  <si>
+    <t>ohhaybtay</t>
+  </si>
+  <si>
     <t>Caroline Lunny</t>
   </si>
   <si>
+    <t>Holliston</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Massachusetts	</t>
+  </si>
+  <si>
+    <t>CarolineLunny</t>
+  </si>
+  <si>
     <t>Bibiana Julian</t>
   </si>
   <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Florida	</t>
+  </si>
+  <si>
+    <t>bibi_julz</t>
+  </si>
+  <si>
     <t>Annaliese Puccini</t>
   </si>
   <si>
+    <t>San Mateo</t>
+  </si>
+  <si>
+    <t>annaliese_p_</t>
+  </si>
+  <si>
     <t>Lauren Schleyer</t>
   </si>
   <si>
+    <t>Dallas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texas	</t>
+  </si>
+  <si>
+    <t>LaurenSchleyer</t>
+  </si>
+  <si>
     <t>Jennifer "Jenny" Delaney</t>
   </si>
   <si>
+    <t>Northbrook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illinois	</t>
+  </si>
+  <si>
+    <t>jdelaneydesigns</t>
+  </si>
+  <si>
     <t>Lauren Griffin</t>
   </si>
   <si>
+    <t>Indianapolis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indiana	</t>
+  </si>
+  <si>
+    <t>laurenmarguerit</t>
+  </si>
+  <si>
     <t>Valerie Biles</t>
   </si>
   <si>
+    <t>Nashville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tennessee	</t>
+  </si>
+  <si>
+    <t>valeriebiles</t>
+  </si>
+  <si>
     <t>Alison "Ali" Harrington</t>
   </si>
   <si>
+    <t>Lawton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oklahoma	</t>
+  </si>
+  <si>
+    <t>ali_harrington_</t>
+  </si>
+  <si>
     <t>Amber Wilkerson</t>
   </si>
   <si>
+    <t>Denver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colorado	</t>
+  </si>
+  <si>
+    <t>AmberWilk</t>
+  </si>
+  <si>
     <t>Brianna "Bri" Amaranthus</t>
   </si>
   <si>
+    <t>Grants Pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oregon	</t>
+  </si>
+  <si>
+    <t>BriAmaranthus</t>
+  </si>
+  <si>
     <t>Brittane Johnson</t>
   </si>
   <si>
+    <t>San Diego</t>
+  </si>
+  <si>
+    <t>Britt_doll_</t>
+  </si>
+  <si>
     <t>Jessica Carroll</t>
   </si>
   <si>
+    <t>Calgary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada	</t>
+  </si>
+  <si>
+    <t>JessCarrollTV</t>
+  </si>
+  <si>
     <t>Lauren Jarreau</t>
   </si>
   <si>
+    <t>New Roads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Louisiana	</t>
+  </si>
+  <si>
+    <t>laurenj225</t>
+  </si>
+  <si>
     <t>D'Nysha "Nysha" Norris</t>
   </si>
   <si>
+    <t>Anderson</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>nyshaxoxo</t>
+  </si>
+  <si>
     <t>Olivia Goethals</t>
   </si>
   <si>
-    <t>Virginia Beach, Virginia</t>
-  </si>
-  <si>
-    <t>Santa Clarita, California</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weiner, Arkansas	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fresno, California	</t>
-  </si>
-  <si>
-    <t>Long Beach, California</t>
-  </si>
-  <si>
-    <t>Morgantown, West Virginia</t>
-  </si>
-  <si>
-    <t>South Portland, Maine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raleigh, North Carolina	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Missoula, Montana	</t>
-  </si>
-  <si>
-    <t>West Palm Beach, Florida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">American Fork, Utah	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salt Lake City, Utah	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belton, South Carolina	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Holliston, Massachusetts	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miami, Florida	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Mateo, California	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dallas, Texas	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northbrook, Illinois	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indianapolis, Indiana	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nashville, Tennessee	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lawton, Oklahoma	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denver, Colorado	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grants Pass, Oregon	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Diego, California	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calgary, Alberta, Canada	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Roads, Louisiana	</t>
-  </si>
-  <si>
-    <t>Anderson, South Carolina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geneseo, Illinois	</t>
+    <t>Geneseo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Illinois	</t>
+  </si>
+  <si>
+    <t>oliviagoethals4</t>
   </si>
 </sst>
 </file>
@@ -246,8 +419,8 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -273,11 +446,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -592,445 +766,714 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EFAF875-4142-844B-A283-46C003A62C21}">
-  <dimension ref="A1:D30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D816B55-66E0-EC40-866B-A6F2D8D3C36D}">
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="32.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="37.5" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1">
         <v>27</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
+      <c r="F2" s="3">
+        <v>43165</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B3" s="1">
         <v>25</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F3" s="3">
+        <v>43164</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1">
         <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="1">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F4" s="3">
+        <v>43157</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1">
         <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="1">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F5" s="3">
+        <v>43150</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1">
         <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="1">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F6" s="3">
+        <v>43143</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1">
         <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="1">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F7" s="3">
+        <v>43143</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1">
         <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="1">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F8" s="3">
+        <v>43143</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1">
         <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="1">
+        <v>35</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F9" s="3">
+        <v>43136</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1">
         <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1">
+        <v>9</v>
+      </c>
+      <c r="F10" s="3">
+        <v>43136</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1">
         <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="1">
+        <v>43</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F11" s="3">
+        <v>43136</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B12" s="1">
         <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="1">
+        <v>47</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F12" s="4">
+        <v>43129</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="B13" s="1">
         <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="1">
+        <v>51</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F13" s="4">
+        <v>43129</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="B14" s="1">
         <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="1">
+        <v>55</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>18</v>
+      <c r="F14" s="4">
+        <v>43129</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B15" s="1">
         <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="1">
+        <v>58</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F15" s="4">
+        <v>43122</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="B16" s="1">
         <v>26</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="1">
+        <v>62</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F16" s="4">
+        <v>43122</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="B17" s="1">
         <v>30</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="1">
+        <v>66</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F17" s="3">
+        <v>43115</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="B18" s="1">
         <v>32</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="1">
+        <v>70</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F18" s="3">
+        <v>43115</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="B19" s="1">
         <v>31</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="1">
+        <v>73</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F19" s="3">
+        <v>43115</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="B20" s="1">
         <v>25</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="1">
+        <v>77</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F20" s="3">
+        <v>43108</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="B21" s="1">
         <v>26</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="1">
+        <v>81</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F21" s="3">
+        <v>43108</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="B22" s="1">
         <v>26</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="1">
+        <v>85</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F22" s="3">
+        <v>43108</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="B23" s="1">
         <v>27</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="1">
+        <v>89</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F23" s="3">
+        <v>43101</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="B24" s="1">
         <v>29</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="1">
+        <v>93</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F24" s="3">
+        <v>43101</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="B25" s="1">
         <v>25</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="1">
+        <v>97</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F25" s="3">
+        <v>43101</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="B26" s="1">
         <v>27</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="1">
+        <v>101</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26" s="1">
+        <v>25</v>
+      </c>
+      <c r="F26" s="3">
+        <v>43101</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="B27" s="1">
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="1">
+        <v>104</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F27" s="3">
+        <v>43101</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="B28" s="1">
         <v>33</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="1">
+        <v>108</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F28" s="3">
+        <v>43101</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="B29" s="1">
         <v>30</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="1">
+        <v>112</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F29" s="3">
+        <v>43101</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="B30" s="1">
         <v>23</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="1">
+        <v>116</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" s="1">
         <v>29</v>
+      </c>
+      <c r="F30" s="3">
+        <v>43101</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" tooltip="Prior Lake, Minnesota" display="https://en.wikipedia.org/wiki/Prior_Lake,_Minnesota" xr:uid="{7BCA6584-3845-4944-A182-984BA141E371}"/>
-    <hyperlink ref="C3" r:id="rId2" tooltip="Virginia Beach, Virginia" display="https://en.wikipedia.org/wiki/Virginia_Beach,_Virginia" xr:uid="{1C8BD56D-19E0-4F48-A658-4F2D13040DD8}"/>
+    <hyperlink ref="D2" r:id="rId1" tooltip="Prior Lake, Minnesota" display="https://en.wikipedia.org/wiki/Prior_Lake,_Minnesota" xr:uid="{A1A8CB03-B4DD-5B40-B997-4495B780B167}"/>
+    <hyperlink ref="D3" r:id="rId2" tooltip="Virginia Beach, Virginia" display="https://en.wikipedia.org/wiki/Virginia_Beach,_Virginia" xr:uid="{DC9C0892-C9D9-C64A-9AA4-39159D56B030}"/>
+    <hyperlink ref="G5" r:id="rId3" display="https://twitter.com/tiarachel91" xr:uid="{BA68F21A-969C-7C49-B895-6DCE072AEB4F}"/>
+    <hyperlink ref="G6" r:id="rId4" display="https://twitter.com/whats_ur_sign_" xr:uid="{B771B87F-522F-264D-9F61-5BEE06F4435A}"/>
+    <hyperlink ref="G8" r:id="rId5" display="https://twitter.com/trumbullina" xr:uid="{D09AFF89-9EC4-CC47-B213-706E4FAF2FED}"/>
+    <hyperlink ref="G15" r:id="rId6" display="https://twitter.com/ohhaybtay" xr:uid="{64387BBE-75C6-4448-B391-97C8A1B714A8}"/>
+    <hyperlink ref="G25" r:id="rId7" display="https://twitter.com/BriAmaranthus" xr:uid="{92C19D15-A5A6-8248-8C2C-7AC293E879C7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
